--- a/Python/Webcam Record Excel/recordings/Straight Line.xlsx
+++ b/Python/Webcam Record Excel/recordings/Straight Line.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farhan\Documents\GitHub\TrajectoryTracking\Python\Webcam Record Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farhan\Documents\GitHub\TrajectoryTracking\Python\Webcam Record Excel\recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BABB73B-61E4-4C99-BE5E-2114728D8BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF0B11A-67F1-48B1-B726-A42D00EEB99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1674,13 +1674,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>383399</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>107352</xdr:rowOff>
+      <xdr:rowOff>107351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>581803</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>21088</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>551131</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>119811</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
